--- a/input data/Test Schedule Askue.xlsx
+++ b/input data/Test Schedule Askue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" tabRatio="826" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="февраль 8.1.36 ТО" sheetId="5" r:id="rId1"/>
@@ -2681,8 +2681,8 @@
   </sheetPr>
   <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:AJ16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8923,7 +8923,7 @@
   <dimension ref="A1:BL70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:AJ16"/>
+      <selection activeCell="A15" sqref="A15:AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12699,7 +12699,7 @@
   <dimension ref="A1:BL37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:AJ16"/>
+      <selection activeCell="F18" sqref="F18:AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -16289,8 +16289,8 @@
   </sheetPr>
   <dimension ref="A1:BF52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:AJ16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -16309,7 +16309,8 @@
     <col min="27" max="27" width="6.6640625" style="132" customWidth="1"/>
     <col min="28" max="32" width="6.6640625" style="4" customWidth="1"/>
     <col min="33" max="33" width="6.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="34" max="36" width="6.44140625" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="35" width="6.44140625" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="0.44140625" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="12" style="4" customWidth="1"/>
     <col min="38" max="16384" width="9.109375" style="4"/>
   </cols>
@@ -18558,8 +18559,8 @@
   </sheetPr>
   <dimension ref="A1:BG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AM57" sqref="AM57"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:AN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
